--- a/test-videos/movie-characteristics.xlsx
+++ b/test-videos/movie-characteristics.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1754637155" val="1224" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1754637155" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1754637155" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1754637155"/>
+      <pm:revision xmlns:pm="smNativeData" day="1754656384" val="1224" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1754656384" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1754656384" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1754656384"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>CAMERA</t>
   </si>
@@ -109,6 +109,9 @@
     <t>hq100-slot.mov</t>
   </si>
   <si>
+    <t>(16, 16)</t>
+  </si>
+  <si>
     <t>IMG_7523</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
   </si>
   <si>
     <t>mq-inlet.mov</t>
+  </si>
+  <si>
+    <t>All test videos were made by Federica Scolari with an iPhone14</t>
   </si>
   <si>
     <t>BLOCK:</t>
@@ -197,7 +203,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1754637155" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1754656384" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -212,7 +218,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1754637155" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1754656384" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -227,7 +233,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1754637155" fgClr="7F7F7F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1754656384" fgClr="7F7F7F" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -249,7 +255,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1754637155" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="100" bgClr="00D8D8D8"/>
+            <pm:shade xmlns:pm="smNativeData" id="1754656384" type="1" fgLvl="100" fgClr="00D8D8D8" bgLvl="100" bgClr="00D8D8D8"/>
           </ext>
         </extLst>
       </patternFill>
@@ -260,7 +266,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1754637155" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1754656384" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -282,7 +288,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1754637155"/>
+          <pm:border xmlns:pm="smNativeData" id="1754656384"/>
         </ext>
       </extLst>
     </border>
@@ -301,7 +307,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1754637155"/>
+          <pm:border xmlns:pm="smNativeData" id="1754656384"/>
         </ext>
       </extLst>
     </border>
@@ -320,7 +326,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1754637155"/>
+          <pm:border xmlns:pm="smNativeData" id="1754656384"/>
         </ext>
       </extLst>
     </border>
@@ -341,10 +347,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1754637155" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1754656384" count="1">
         <pm:charStyle name="Normal" fontId="0"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1754637155" count="1">
+      <pm:colors xmlns:pm="smNativeData" id="1754656384" count="1">
         <pm:color name="Color 24" rgb="D8D8D8"/>
       </pm:colors>
     </ext>
@@ -632,7 +638,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="9" defaultColWidth="10.000000" defaultRowHeight="13.45"/>
@@ -757,9 +763,7 @@
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -795,9 +799,7 @@
       <c r="H5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I5" s="2"/>
       <c r="J5" s="2" t="n">
         <v>0.0429999999999999893</v>
       </c>
@@ -834,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J6" t="n">
         <v>0.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -848,10 +850,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -878,7 +880,7 @@
         <v>0.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -886,10 +888,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -919,12 +921,12 @@
         <v>0.75</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -947,9 +949,7 @@
       <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I9" s="2"/>
       <c r="J9" s="2" t="n">
         <v>0.0429999999999999893</v>
       </c>
@@ -962,13 +962,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>29.9899999999999984</v>
@@ -985,9 +985,7 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I10" s="2"/>
       <c r="J10" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -995,18 +993,18 @@
         <v>0.75</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
         <v>29.9899999999999984</v>
@@ -1024,7 +1022,7 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J11" t="n">
         <v>0.3</v>
@@ -1038,13 +1036,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>29.9899999999999984</v>
@@ -1061,9 +1059,7 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I12" s="2"/>
       <c r="J12" s="2" t="n">
         <v>0.3</v>
       </c>
@@ -1071,18 +1067,18 @@
         <v>0.75</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>210</v>
@@ -1099,9 +1095,7 @@
       <c r="H13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="n">
         <v>0.0429999999999999893</v>
       </c>
@@ -1114,13 +1108,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>209.430000000000007</v>
@@ -1137,9 +1131,7 @@
       <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I14" s="2"/>
       <c r="J14" s="2" t="n">
         <v>0.0429999999999999893</v>
       </c>
@@ -1152,13 +1144,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>209.139999999999986</v>
@@ -1175,9 +1167,7 @@
       <c r="H15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="I15" s="2"/>
       <c r="J15" s="2" t="n">
         <v>0.0429999999999999893</v>
       </c>
@@ -1185,18 +1175,18 @@
         <v>0.75</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D16" t="n">
         <v>209.97999999999999</v>
@@ -1226,17 +1216,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +1241,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1754637155" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1754656384" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1255,8 +1250,8 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1754637155" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1754637155" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1754656384" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1754656384" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
@@ -1265,7 +1260,7 @@
   </tableParts>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1754637155" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1754656384" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
